--- a/biology/Botanique/Pseudorlaya_pycnantha/Pseudorlaya_pycnantha.xlsx
+++ b/biology/Botanique/Pseudorlaya_pycnantha/Pseudorlaya_pycnantha.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Pseudorlaya pumila
 Daucus pumilus ou Pseudorlaya pumila, en français la Fausse-girouille des sables, est une espèce de plantes à fleurs de la famille des Apiaceae et de la sous-famille des Apioideae. C'est une plante annuelle d'une hauteur de 5 à 15 cm, à petites fleurs blanches et à fruits hérissés d'aiguillons, endémique de la région méditerranéenne, où elle pousse principalement dans les dunes du littoral.
@@ -512,15 +524,87 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce a été successivement classée dans les genres Caucalis, Daucus, Orlaya et Pseudorlaya, et son nom correct fait encore débat entre Daucus pumilus[1],[2],[3],[4] ou Pseudorlaya pumila[5],[6],[7],[8].
-Étymologie
-Le nom générique Daucus désignait en latin et en grec (daukos, daukon, deukos, « doux, jus sucré »)[9] différentes Ombellifères (notamment la carotte et le panais) dont les auteurs antiques ne faisaient pas bien la différence[10].
-Le nom générique Pseudorlaya se décline en pseudo « faux » et Orlaya, la plante ayant été antérieurement décrite comme appartenant à ce genre, lequel fut dédié à Johann Orlay de l’académie de médecine de Moscou en 1814[11].
-L’épithète spécifique pumila signifie « nain ». En effet l'espèce est particulièrement petite pour une Apiacée[11].
-Synonymes
-Daucus pumilus a pour synonymes[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce a été successivement classée dans les genres Caucalis, Daucus, Orlaya et Pseudorlaya, et son nom correct fait encore débat entre Daucus pumilus ou Pseudorlaya pumila.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Pseudorlaya_pycnantha</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pseudorlaya_pycnantha</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom générique Daucus désignait en latin et en grec (daukos, daukon, deukos, « doux, jus sucré ») différentes Ombellifères (notamment la carotte et le panais) dont les auteurs antiques ne faisaient pas bien la différence.
+Le nom générique Pseudorlaya se décline en pseudo « faux » et Orlaya, la plante ayant été antérieurement décrite comme appartenant à ce genre, lequel fut dédié à Johann Orlay de l’académie de médecine de Moscou en 1814.
+L’épithète spécifique pumila signifie « nain ». En effet l'espèce est particulièrement petite pour une Apiacée.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Pseudorlaya_pycnantha</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pseudorlaya_pycnantha</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Daucus pumilus a pour synonymes :
 Pseudorlaya pumila subsp. microcarpa (Loret &amp; Barrandon) M. Laínz
 Orlaya maritima var. microcarpa Loret &amp; Barrandon
 Pseudorlaya pycnantha H. Lindb.
@@ -547,69 +631,108 @@
 Daucus pumilus (L.) Caruel
 Daucus maritimus (Gouan) Gaertn.
 Daucus pumilus (L.) Ball
-Noms vulgaires et vernaculaires
-Le nom français recommandé ou typique est « Fausse-girouille des sables »[6],[12]. L'espèce est également appelée « Caucalis maritime », « Faux-orlaya nain », « Girouille du bord de mer », « Petit faux-orlaya »[5] ou « Orlaya maritime»[13]. Sont également appelées Girouille d'autres espèces.
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Pseudorlaya_pycnantha</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Pseudorlaya_pycnantha</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Pseudorlaya_pycnantha</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pseudorlaya_pycnantha</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Noms vulgaires et vernaculaires</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom français recommandé ou typique est « Fausse-girouille des sables »,. L'espèce est également appelée « Caucalis maritime », « Faux-orlaya nain », « Girouille du bord de mer », « Petit faux-orlaya » ou « Orlaya maritime». Sont également appelées Girouille d'autres espèces.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Pseudorlaya_pycnantha</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pseudorlaya_pycnantha</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
         <is>
           <t>Variétés</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Il existe deux variétés selon l'INPN      (10 janvier 2020)[6] :
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Il existe deux variétés selon l'INPN      (10 janvier 2020) :
 Pseudorlaya pumila (L.) Grande, 1925 var. pumila
 Pseudorlaya pumila var. microcarpa (Loret &amp; Barrandon) Reduron, 2008</t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Pseudorlaya_pycnantha</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Pseudorlaya_pycnantha</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Pseudorlaya_pycnantha</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pseudorlaya_pycnantha</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
         <is>
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Appareil végétatif.
@@ -617,108 +740,219 @@
 			Détail des fleurs.
 			Détail des fruits.
 			Plant porteur de fruits.
-Appareil végétatif
-C'est une plante annuelle de 5 à 15 cm, à tige velue, d'un vert cendré ; les feuilles sont toutes pétiolées, bi-tripennatiséquées, à lobes oblongs[14].
-Appareil reproducteur
-Les fleurs sont blanches ou rougeâtres, petites, celles de la circonférence à peine rayonnantes ; les ombelles sont à 2 à 5 rayons très inégaux, la centrale paraissant radicale ; l'involucre est à 2 à 5 folioles inégales, herbacées, linéaires, acuminées. Les styles sont plus courts que le stylopode conique ; le calice est à dents triangulaires ; le fruit est elliptique, à côtes primaires velues, à aiguillons dilatés à la base, hérissés en étoile ; la commissure est elliptique et plane[14]. Elle fleurit d'avril à juin en France métropolitaine[14],[15]., de mars à mai au Maroc[16].
-Confusions possibles
-L'espèce est aisée à distinguer d'une autre plante, même d'une carotte. Tout est particulier, du feuillage vert cendré et abondant, au fruit spectaculaire eu égard à la taille de la plante, en passant par le port, les plantes couchées avec un port raide étant rares. Le fruit isolé ressemble cependant beaucoup à celui de la carotte[11].
-Elle peut être cependant facilement confondue avec Pseudorlaya minuscula en absence de fructification[16].
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Pseudorlaya_pycnantha</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Pseudorlaya_pycnantha</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Pseudorlaya_pycnantha</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pseudorlaya_pycnantha</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Appareil végétatif</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est une plante annuelle de 5 à 15 cm, à tige velue, d'un vert cendré ; les feuilles sont toutes pétiolées, bi-tripennatiséquées, à lobes oblongs.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Pseudorlaya_pycnantha</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pseudorlaya_pycnantha</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Appareil reproducteur</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les fleurs sont blanches ou rougeâtres, petites, celles de la circonférence à peine rayonnantes ; les ombelles sont à 2 à 5 rayons très inégaux, la centrale paraissant radicale ; l'involucre est à 2 à 5 folioles inégales, herbacées, linéaires, acuminées. Les styles sont plus courts que le stylopode conique ; le calice est à dents triangulaires ; le fruit est elliptique, à côtes primaires velues, à aiguillons dilatés à la base, hérissés en étoile ; la commissure est elliptique et plane. Elle fleurit d'avril à juin en France métropolitaine,., de mars à mai au Maroc.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Pseudorlaya_pycnantha</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pseudorlaya_pycnantha</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Confusions possibles</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce est aisée à distinguer d'une autre plante, même d'une carotte. Tout est particulier, du feuillage vert cendré et abondant, au fruit spectaculaire eu égard à la taille de la plante, en passant par le port, les plantes couchées avec un port raide étant rares. Le fruit isolé ressemble cependant beaucoup à celui de la carotte.
+Elle peut être cependant facilement confondue avec Pseudorlaya minuscula en absence de fructification.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Pseudorlaya_pycnantha</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pseudorlaya_pycnantha</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
         <is>
           <t>Habitat et écologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est une plante devenue très rare en outre peu repérée à cause de sa discrétion. Elle pousse dans les sables du bord de mer, souvent sur les chemins ouverts par les promeneurs mais disparaît s’ils sont trop fréquentés, ou abandonnés, car elle ne supporte pas la concurrence des autres végétaux[11]. Elle pousse dans les dunes, les pâturages, cultures, matorrals et forêts claires sablonneuses du littoral, et dans les plaines sub-litorales[16], jusqu'à 500 m d'altitude[3].
-C'est une espèce indicatrice des pelouses dunales des Malcolmietalia[6],[17].
-En se repliant, les pétales protègent les anthères et montrent leur face extérieure très velue qui retient l’eau[11].
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Pseudorlaya_pycnantha</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Pseudorlaya_pycnantha</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est une plante devenue très rare en outre peu repérée à cause de sa discrétion. Elle pousse dans les sables du bord de mer, souvent sur les chemins ouverts par les promeneurs mais disparaît s’ils sont trop fréquentés, ou abandonnés, car elle ne supporte pas la concurrence des autres végétaux. Elle pousse dans les dunes, les pâturages, cultures, matorrals et forêts claires sablonneuses du littoral, et dans les plaines sub-litorales, jusqu'à 500 m d'altitude.
+C'est une espèce indicatrice des pelouses dunales des Malcolmietalia,.
+En se repliant, les pétales protègent les anthères et montrent leur face extérieure très velue qui retient l’eau.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Pseudorlaya_pycnantha</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pseudorlaya_pycnantha</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
         <is>
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elle est endémique des côtes de la Méditerranée[11],[16].
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Pseudorlaya_pycnantha</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Pseudorlaya_pycnantha</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle est endémique des côtes de la Méditerranée,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Pseudorlaya_pycnantha</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pseudorlaya_pycnantha</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
         <is>
           <t>Menaces et conservation</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce est classée par l'Union internationale pour la conservation de la nature en « préoccupation mineure » (LC) à l'échelle mondiale, à l'échelle française et en Corse, et est classée « en danger » (EN) en Provence-Alpes-Côte-d'Azur[6]. L'espèce est protégée sur l'ensemble de la France métropolitaine[18],[6].
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce est classée par l'Union internationale pour la conservation de la nature en « préoccupation mineure » (LC) à l'échelle mondiale, à l'échelle française et en Corse, et est classée « en danger » (EN) en Provence-Alpes-Côte-d'Azur. L'espèce est protégée sur l'ensemble de la France métropolitaine,.
 </t>
         </is>
       </c>
